--- a/biology/Médecine/Bendich_Ahin/Bendich_Ahin.xlsx
+++ b/biology/Médecine/Bendich_Ahin/Bendich_Ahin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bendich Ahin[1],[2], appelé aussi Baruch Haïm (en hébreu : בָּרוּךְ חַיִּים, Barukh Ḥayyīm), est un mathématicien et médecin provençal du XIVe siècle.
-Membre de la communauté juive d'Arles, il fut nommé en 1369 médecin de Jeanne d'Anjou, comtesse de Provence et reine de Naples ; logé au palais royal, il fut exempté, tant pour lui que pour sa postérité, de tous les impôts spéciaux imposés aux Juifs[3].
-Bendich Ahin connaissait très bien le latin, le grec et l'arabe, ainsi que les mathématiques sur lesquelles il fit à Arles des conférences publiques[4]. Il s'intéressait également à l'astrologie[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bendich Ahin appelé aussi Baruch Haïm (en hébreu : בָּרוּךְ חַיִּים, Barukh Ḥayyīm), est un mathématicien et médecin provençal du XIVe siècle.
+Membre de la communauté juive d'Arles, il fut nommé en 1369 médecin de Jeanne d'Anjou, comtesse de Provence et reine de Naples ; logé au palais royal, il fut exempté, tant pour lui que pour sa postérité, de tous les impôts spéciaux imposés aux Juifs.
+Bendich Ahin connaissait très bien le latin, le grec et l'arabe, ainsi que les mathématiques sur lesquelles il fit à Arles des conférences publiques. Il s'intéressait également à l'astrologie.
 Meyer Kayserling a tenté d'identifier Bendich Ahin avec Maestro Bendit, l'un des dix hommes à qui le rabbin Kalonymus ben Kalonymus, natif d'Arles, a dédié son Even Boḥan, un traité d'éthique écrit en l'an 1322.
-Sa femme Estes lui donna quatre filles dont trois épousèrent des médecins : Thoros Bondias, Abraham Boneti Abigdor et Bonsenhor Brunelli[5].
+Sa femme Estes lui donna quatre filles dont trois épousèrent des médecins : Thoros Bondias, Abraham Boneti Abigdor et Bonsenhor Brunelli.
 </t>
         </is>
       </c>
